--- a/notes/Josh Time Sheet.xlsx
+++ b/notes/Josh Time Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">Known Unknowns Program</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worked on proposal changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added radio buttons for ICK expansion, and number for training trials correct to advance feature.</t>
   </si>
   <si>
     <t xml:space="preserve">Deliverable Schedule, Workspace Setup, Github pages deployment</t>
@@ -355,12 +358,12 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
   </cols>
   <sheetData>
@@ -451,11 +454,26 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="8" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.806944444444444</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <f aca="false">(C6-B6) * 24</f>
+        <v>1.63333333333333</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <f aca="false">E6*75</f>
+        <v>122.5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -706,7 +724,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -725,9 +743,9 @@
       <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
   </cols>
   <sheetData>
@@ -789,7 +807,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,7 +826,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +845,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,7 +864,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +883,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,7 +902,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,7 +921,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,7 +940,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +959,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,7 +978,7 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +997,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,7 +1016,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1035,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1036,7 +1054,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1073,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1113,7 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,7 +1132,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1151,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,7 +1170,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1189,7 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1229,7 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1248,7 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,7 +1267,7 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1286,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1305,7 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1324,7 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1343,7 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1363,7 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1383,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1403,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1423,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,7 +1443,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1483,7 @@
         <v>3.3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1501,7 @@
         <v>1.86666666666667</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1511,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/notes/Josh Time Sheet.xlsx
+++ b/notes/Josh Time Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t xml:space="preserve">Known Unknowns Program</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">Added radio buttons for ICK expansion, and number for training trials correct to advance feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced iCannotKnow with condition, created Combined condition, and tests all 3 conditions.</t>
   </si>
   <si>
     <t xml:space="preserve">Deliverable Schedule, Workspace Setup, Github pages deployment</t>
@@ -358,10 +361,10 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
@@ -476,11 +479,26 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="8" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.256944444444444</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.315277777777778</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <f aca="false">(C7-B7) * 24</f>
+        <v>1.4</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">E7*75</f>
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -743,7 +761,7 @@
       <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
@@ -807,7 +825,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +844,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,7 +863,7 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,7 +882,7 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +901,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,7 +920,7 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,7 +939,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,7 +958,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +977,7 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,7 +996,7 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,7 +1015,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,7 +1034,7 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1053,7 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,7 +1072,7 @@
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1091,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,7 +1131,7 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,7 +1150,7 @@
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1169,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,7 +1188,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,7 +1207,7 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,7 +1247,7 @@
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1248,7 +1266,7 @@
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1285,7 @@
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,7 +1304,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,7 +1323,7 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1324,7 +1342,7 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1361,7 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1381,7 @@
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1401,7 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1421,7 @@
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1441,7 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1461,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1501,7 @@
         <v>3.3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1519,7 @@
         <v>1.86666666666667</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/notes/Josh Time Sheet.xlsx
+++ b/notes/Josh Time Sheet.xlsx
@@ -361,10 +361,10 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
@@ -486,15 +486,15 @@
         <v>0.256944444444444</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.315277777777778</v>
+        <v>0.321527777777778</v>
       </c>
       <c r="E7" s="7" t="n">
         <f aca="false">(C7-B7) * 24</f>
-        <v>1.4</v>
+        <v>1.55000000000001</v>
       </c>
       <c r="F7" s="7" t="n">
         <f aca="false">E7*75</f>
-        <v>105</v>
+        <v>116.250000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -761,7 +761,7 @@
       <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="109.34"/>
